--- a/docs/Sprint04/Burndown_Sprint_04.xlsx
+++ b/docs/Sprint04/Burndown_Sprint_04.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Data de início:</t>
   </si>
@@ -58,7 +58,13 @@
     <t>Tela Principal: Função de de aviso sobre provas e atividades próximas</t>
   </si>
   <si>
+    <t>Vitor</t>
+  </si>
+  <si>
     <t>Tela Principal: Formatação de datas sem afetar o update de AlunoAvaliacao</t>
+  </si>
+  <si>
+    <t>Jonas</t>
   </si>
   <si>
     <t>Tela Exibição: Protótipo Visual e definição de features</t>
@@ -67,7 +73,16 @@
     <t>Tela Exibição: Visual em Java</t>
   </si>
   <si>
-    <t>Tela Exibição: Back</t>
+    <t>Tela Exibição: Função de média dos alunos na avaliação</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Tela Exibição: Função de número de alunos aprovados</t>
+  </si>
+  <si>
+    <t>Alita</t>
   </si>
   <si>
     <t>Tela Cadastro: Cadastro de Salas</t>
@@ -76,13 +91,10 @@
     <t>Alexandre</t>
   </si>
   <si>
-    <t>Tela Cadastro: Função de atualizar alunos</t>
+    <t xml:space="preserve">Melhorar desepenho do sistema: BD </t>
   </si>
   <si>
-    <t>Tela Cadastro: Função de atualizar horários</t>
-  </si>
-  <si>
-    <t>Melhorar desepenho do sistema: BD</t>
+    <t>Michael</t>
   </si>
   <si>
     <t>Melhorar desepenho do sistema:Tela Cadastro</t>
@@ -98,6 +110,12 @@
   </si>
   <si>
     <t>Deploy da Aplicação</t>
+  </si>
+  <si>
+    <t>Bug do combo da cadastro de sala</t>
+  </si>
+  <si>
+    <t>Bug da função de rendimento geral</t>
   </si>
 </sst>
 </file>
@@ -411,11 +429,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1950656558"/>
-        <c:axId val="1725182813"/>
+        <c:axId val="103884864"/>
+        <c:axId val="2063089490"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1950656558"/>
+        <c:axId val="103884864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,10 +485,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725182813"/>
+        <c:crossAx val="2063089490"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725182813"/>
+        <c:axId val="2063089490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +552,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1950656558"/>
+        <c:crossAx val="103884864"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -816,7 +834,7 @@
       </c>
       <c r="E1" s="4">
         <f>TODAY()</f>
-        <v>45062</v>
+        <v>45081</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -948,7 +966,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUM(J29:J939)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ref="D5:D25" si="1">SUMIF($K$29:$K$939,B5,$J$29:$J$939)</f>
@@ -956,7 +974,7 @@
       </c>
       <c r="E5" s="8">
         <f>C5-D5</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -990,7 +1008,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:C25" si="3">C5-$C$5/($B$2-1)</f>
-        <v>47.5</v>
+        <v>53.2</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
@@ -998,7 +1016,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6:E25" si="4">IF(B6&lt;=$E$1,E5-D6,)</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1032,15 +1050,15 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>50.4</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1074,15 +1092,15 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="3"/>
-        <v>42.5</v>
+        <v>47.6</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1116,15 +1134,15 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>44.8</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1158,15 +1176,15 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>45</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1200,15 +1218,15 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>39.2</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1242,15 +1260,15 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="3"/>
-        <v>32.5</v>
+        <v>36.4</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>42</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1284,15 +1302,15 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>33.6</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>39</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1326,15 +1344,15 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>30.8</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>36</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1368,15 +1386,15 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1410,15 +1428,15 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>25.2</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1452,15 +1470,15 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22.4</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1494,15 +1512,15 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>17.5</v>
+        <v>19.6</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1536,15 +1554,15 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1578,15 +1596,15 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1620,15 +1638,15 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>28</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1662,15 +1680,15 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1704,15 +1722,15 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1746,15 +1764,15 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1792,11 +1810,11 @@
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="E25" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1929,11 +1947,15 @@
       <c r="H29" s="15">
         <v>45061.0</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" s="16">
         <v>5.0</v>
       </c>
-      <c r="K29" s="17"/>
+      <c r="K29" s="17">
+        <v>45078.0</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1952,16 +1974,20 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="15">
         <v>45061.0</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="J30" s="16">
         <v>3.0</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="17">
+        <v>45080.0</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2002,7 +2028,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2013,11 +2039,15 @@
       <c r="H32" s="15">
         <v>45061.0</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="16">
         <v>3.0</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="21">
+        <v>45068.0</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2036,7 +2066,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2047,11 +2077,15 @@
       <c r="H33" s="22">
         <v>45061.0</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="J33" s="16">
         <v>3.0</v>
       </c>
-      <c r="K33" s="17"/>
+      <c r="K33" s="17">
+        <v>45069.0</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2070,7 +2104,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2081,11 +2115,15 @@
       <c r="H34" s="15">
         <v>45061.0</v>
       </c>
-      <c r="I34" s="16"/>
+      <c r="I34" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="J34" s="23">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="17">
+        <v>45079.0</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2103,17 +2141,27 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="22">
+        <v>45061.0</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="K35" s="17">
+        <v>45079.0</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2132,7 +2180,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2144,7 +2192,7 @@
         <v>45061.0</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J36" s="16">
         <v>3.0</v>
@@ -2169,22 +2217,16 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A37" s="14"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="15">
-        <v>45061.0</v>
-      </c>
+      <c r="H37" s="15"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="16">
-        <v>3.0</v>
-      </c>
+      <c r="J37" s="16"/>
       <c r="K37" s="17"/>
       <c r="L37" s="6"/>
       <c r="M37" s="3"/>
@@ -2203,22 +2245,16 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A38" s="20"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="22">
-        <v>45061.0</v>
-      </c>
+      <c r="H38" s="22"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="16">
-        <v>3.0</v>
-      </c>
+      <c r="J38" s="16"/>
       <c r="K38" s="17"/>
       <c r="L38" s="6"/>
       <c r="M38" s="3"/>
@@ -2266,7 +2302,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2277,11 +2313,15 @@
       <c r="H40" s="22">
         <v>45061.0</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="J40" s="16">
         <v>3.0</v>
       </c>
-      <c r="K40" s="17"/>
+      <c r="K40" s="17">
+        <v>45063.0</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2300,7 +2340,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -2311,11 +2351,15 @@
       <c r="H41" s="15">
         <v>45061.0</v>
       </c>
-      <c r="I41" s="16"/>
+      <c r="I41" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="J41" s="16">
         <v>3.0</v>
       </c>
-      <c r="K41" s="17"/>
+      <c r="K41" s="17">
+        <v>45070.0</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2334,7 +2378,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2345,11 +2389,15 @@
       <c r="H42" s="22">
         <v>45061.0</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J42" s="16">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
-      <c r="K42" s="17"/>
+      <c r="K42" s="17">
+        <v>45081.0</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -2396,7 +2444,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2407,11 +2455,15 @@
       <c r="H44" s="22">
         <v>45061.0</v>
       </c>
-      <c r="I44" s="16"/>
+      <c r="I44" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="J44" s="16">
         <v>2.0</v>
       </c>
-      <c r="K44" s="17"/>
+      <c r="K44" s="17">
+        <v>45073.0</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -2430,7 +2482,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2441,11 +2493,15 @@
       <c r="H45" s="15">
         <v>45061.0</v>
       </c>
-      <c r="I45" s="16"/>
+      <c r="I45" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="J45" s="16">
         <v>3.0</v>
       </c>
-      <c r="K45" s="17"/>
+      <c r="K45" s="17">
+        <v>45071.0</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -2464,7 +2520,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2475,11 +2531,15 @@
       <c r="H46" s="22">
         <v>45061.0</v>
       </c>
-      <c r="I46" s="16"/>
+      <c r="I46" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="J46" s="16">
         <v>5.0</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="17">
+        <v>45066.0</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -2497,17 +2557,27 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
+      <c r="H47" s="15">
+        <v>45061.0</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>45071.0</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -2525,17 +2595,27 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="20"/>
+      <c r="A48" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="17"/>
+      <c r="H48" s="22">
+        <v>45061.0</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="K48" s="17">
+        <v>45078.0</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -29209,15 +29289,15 @@
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A34:G34"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A43:G43"/>
